--- a/03.指标管理/权益/权益-模板.xlsx
+++ b/03.指标管理/权益/权益-模板.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luxing\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01项目资料\0清算所\清算所项目文档\qss_doc\03.指标管理\权益\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="商品展示指标" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
     <sheet name="sheet3" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -796,6 +796,607 @@
   </si>
   <si>
     <t>三方融资平台相关用户工商信息问题超过阈值预警</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>市场以圆形代表，大小表示客户规模，颜色表示风险系数，位置表示分布</t>
+  </si>
+  <si>
+    <t>风险一级指标占比</t>
+  </si>
+  <si>
+    <t>累计融资额</t>
+  </si>
+  <si>
+    <t>所有市场总额，横轴时间，纵轴累计融资金额</t>
+  </si>
+  <si>
+    <t>所有市场风险事件明细按时间先后顺序展示</t>
+  </si>
+  <si>
+    <t>分市场叠加的雷达图，可点选某市场某风险</t>
+  </si>
+  <si>
+    <t>风险统计</t>
+  </si>
+  <si>
+    <t>某市场某风险数量统计表</t>
+  </si>
+  <si>
+    <t>市场维度风险趋势</t>
+  </si>
+  <si>
+    <t>某市场某风险趋势图，横轴时间，纵轴数量</t>
+  </si>
+  <si>
+    <t>某市场某风险明细，按时间先后顺序展示</t>
+  </si>
+  <si>
+    <t>风险系数</t>
+  </si>
+  <si>
+    <t>每月加权评分，横轴时间，按月展示最近一年的</t>
+  </si>
+  <si>
+    <t>内环市场风险数占比，外环为风险二级指标占比</t>
+  </si>
+  <si>
+    <t>指标维度风险趋势</t>
+  </si>
+  <si>
+    <t>横轴时间，纵轴数量，每类风险一条趋势线、总线</t>
+  </si>
+  <si>
+    <t>各二级指标市场占比展示</t>
+  </si>
+  <si>
+    <t>规模及分布监控</t>
+  </si>
+  <si>
+    <t>横轴时间纵轴数量，矩形代表总量，投资人新用户、注销户、活跃户各一条线</t>
+  </si>
+  <si>
+    <t>投资人，内环区域中环省外环市</t>
+  </si>
+  <si>
+    <t>横轴时间纵轴金额，每个市场一条线展示已完成的融资金额趋势图、总线</t>
+  </si>
+  <si>
+    <t>累计融资占比</t>
+  </si>
+  <si>
+    <t>内环各地区累计融资额占比，外环各市场累计融资额占比</t>
+  </si>
+  <si>
+    <t>成交趋势</t>
+  </si>
+  <si>
+    <t>横轴时间纵轴数量，每市场一条线展示成交数量走势、总线</t>
+  </si>
+  <si>
+    <t>成交分布</t>
+  </si>
+  <si>
+    <t>内环各地区总成交笔数占比、外环各市场成交笔数占比</t>
+  </si>
+  <si>
+    <t>累计发售产品数量</t>
+  </si>
+  <si>
+    <t>横轴时间纵轴数量和金额，累计发售产品的数量和金额走势，区分在售和未结清（分市场）</t>
+  </si>
+  <si>
+    <t>发售产品占比</t>
+  </si>
+  <si>
+    <t>内环各地区发售产品总数占比，外环各市场大类占比</t>
+  </si>
+  <si>
+    <t>发行人数量</t>
+  </si>
+  <si>
+    <t>横轴时间纵轴数量，矩形代表总量，发行人新用户、注销户、活跃户各一条线</t>
+  </si>
+  <si>
+    <t>发行人省市占比</t>
+  </si>
+  <si>
+    <t>内环区域中环省外环市</t>
+  </si>
+  <si>
+    <t>累计融资金额排名</t>
+  </si>
+  <si>
+    <t>融资人累计融资排名及前三趋势</t>
+  </si>
+  <si>
+    <t>逾期客户占比</t>
+  </si>
+  <si>
+    <t>违约客户占比</t>
+  </si>
+  <si>
+    <t>产品周期占比</t>
+  </si>
+  <si>
+    <t>各期限产品占比</t>
+  </si>
+  <si>
+    <t>已交易产品最高利率趋势</t>
+  </si>
+  <si>
+    <t>按月</t>
+  </si>
+  <si>
+    <t>已交易产品平均利率趋势</t>
+  </si>
+  <si>
+    <t>显示前三的发行人</t>
+  </si>
+  <si>
+    <t>单笔融资金额排名</t>
+  </si>
+  <si>
+    <t>异常成交监控</t>
+  </si>
+  <si>
+    <t>异常成交占比趋势图，按月统计，展示最近一年的</t>
+  </si>
+  <si>
+    <t>亏损产品占比</t>
+  </si>
+  <si>
+    <t>累计亏损产品占比</t>
+  </si>
+  <si>
+    <t>客户风险管理</t>
+  </si>
+  <si>
+    <t>市场维度客户数量走势图</t>
+  </si>
+  <si>
+    <t>每市场一条线展示各市场客户数量走势</t>
+  </si>
+  <si>
+    <t>客户持仓金额</t>
+  </si>
+  <si>
+    <t>横轴时间纵轴金额，当日客户持仓金额趋势图</t>
+  </si>
+  <si>
+    <t>显示总纠纷数和未处理纠纷数</t>
+  </si>
+  <si>
+    <t>亏损客户占比</t>
+  </si>
+  <si>
+    <t>资金风险监控</t>
+  </si>
+  <si>
+    <t>月手续费收入趋势</t>
+  </si>
+  <si>
+    <t>横轴时间纵轴金额，每个市场一条线展示手续费收入趋势图、总线</t>
+  </si>
+  <si>
+    <t>亏损金额占比</t>
+  </si>
+  <si>
+    <t>亏损金额占融资金额比例</t>
+  </si>
+  <si>
+    <t>未结清融资金额趋势</t>
+  </si>
+  <si>
+    <t>横轴时间纵轴金额，每个市场一条线展示还未结清的融资金额趋势、总线</t>
+  </si>
+  <si>
+    <t>未结清产品最高利率趋势</t>
+  </si>
+  <si>
+    <t>未结清产品平均利率趋势</t>
+  </si>
+  <si>
+    <t>资金流水</t>
+  </si>
+  <si>
+    <t>显示最近5个工作日资金流水，日期、借方（增加）、贷方（减少）、轧差</t>
+  </si>
+  <si>
+    <t>本周融资、兑付流水，按时间顺序展示</t>
+  </si>
+  <si>
+    <t>洗钱风险监控</t>
+  </si>
+  <si>
+    <t>投资人单笔金额笔数排名，显示前三账户信息及近期交易流水</t>
+  </si>
+  <si>
+    <t>投资人频繁交易排名，显示前三账户信息及近期交易流水</t>
+  </si>
+  <si>
+    <t>投资人总持仓金额排名，显示前三账户信息及近期交易流水</t>
+  </si>
+  <si>
+    <t>舆情监控</t>
+  </si>
+  <si>
+    <t>内环市场舆情数占比，外环二级指标占比</t>
+  </si>
+  <si>
+    <t>舆情走势</t>
+  </si>
+  <si>
+    <t>每市场一条线舆情数量走势、总线</t>
+  </si>
+  <si>
+    <t>事件展示</t>
+  </si>
+  <si>
+    <t>舆情指标预警的事件，按时间先后顺序展示</t>
+  </si>
+  <si>
+    <t>工商
+监控</t>
+  </si>
+  <si>
+    <t>指标预警的事件，按时间先后顺序展示</t>
+  </si>
+  <si>
+    <t>关系图</t>
+  </si>
+  <si>
+    <t>投资人、融资人关系图</t>
+  </si>
+  <si>
+    <t>客户</t>
+  </si>
+  <si>
+    <t>投资者开户数</t>
+  </si>
+  <si>
+    <t>机构投资者开户数</t>
+  </si>
+  <si>
+    <t>个人投资者开户数</t>
+  </si>
+  <si>
+    <t>资金</t>
+  </si>
+  <si>
+    <t>客户资金余额</t>
+  </si>
+  <si>
+    <t>手续费收入</t>
+  </si>
+  <si>
+    <t>前10大融资人融资余额</t>
+  </si>
+  <si>
+    <t>前10大投资人持仓余额</t>
+  </si>
+  <si>
+    <t>平台累计融资金额</t>
+  </si>
+  <si>
+    <t>交易</t>
+  </si>
+  <si>
+    <t>成交金额</t>
+  </si>
+  <si>
+    <t>产品</t>
+  </si>
+  <si>
+    <t>本年已交易产品最高利率</t>
+  </si>
+  <si>
+    <t>本年已交易产品加权平均利率</t>
+  </si>
+  <si>
+    <t>未结清产品最高利率</t>
+  </si>
+  <si>
+    <t>未结清产品加权平均利率</t>
+  </si>
+  <si>
+    <t>开业来累计发售产品数量</t>
+  </si>
+  <si>
+    <t>在售产品数量</t>
+  </si>
+  <si>
+    <t>未结清产品数量</t>
+  </si>
+  <si>
+    <t>未结清产品余额</t>
+  </si>
+  <si>
+    <t>逾期未结清产品数量</t>
+  </si>
+  <si>
+    <t>逾期未结清产品余额</t>
+  </si>
+  <si>
+    <t>规模类</t>
+  </si>
+  <si>
+    <t>成交量</t>
+  </si>
+  <si>
+    <t>成交额</t>
+  </si>
+  <si>
+    <t>持仓量</t>
+  </si>
+  <si>
+    <t>资金量</t>
+  </si>
+  <si>
+    <t>停板个数</t>
+  </si>
+  <si>
+    <t>价格联动性分析指标</t>
+  </si>
+  <si>
+    <t>波动率</t>
+  </si>
+  <si>
+    <t>振幅率</t>
+  </si>
+  <si>
+    <t>N日波动率</t>
+  </si>
+  <si>
+    <t>国内外市场价格联动性分析</t>
+  </si>
+  <si>
+    <t>期现货市场价格联动性分析</t>
+  </si>
+  <si>
+    <t>合约间价差率分析</t>
+  </si>
+  <si>
+    <t>分布及对比指标</t>
+  </si>
+  <si>
+    <t>会员成交量集中度</t>
+  </si>
+  <si>
+    <t>会员持仓量集中度</t>
+  </si>
+  <si>
+    <t>会员盈亏集中度</t>
+  </si>
+  <si>
+    <t>会员资金量集中度</t>
+  </si>
+  <si>
+    <t>客户成交量集中度</t>
+  </si>
+  <si>
+    <t>客户持仓量集中度</t>
+  </si>
+  <si>
+    <t>客户盈亏集中度</t>
+  </si>
+  <si>
+    <t>个体指标</t>
+  </si>
+  <si>
+    <t>持仓量达限仓百分比</t>
+  </si>
+  <si>
+    <t>合约单笔成交量或者委托量</t>
+  </si>
+  <si>
+    <t>合约盈亏率</t>
+  </si>
+  <si>
+    <t>会员盈亏资金比</t>
+  </si>
+  <si>
+    <t>会员资金增减</t>
+  </si>
+  <si>
+    <t>会员结算准备金余额</t>
+  </si>
+  <si>
+    <t>市场影响指标</t>
+  </si>
+  <si>
+    <t>连续交易影响价格违规行为监控</t>
+  </si>
+  <si>
+    <t>约定交易影响价格违规行为监控</t>
+  </si>
+  <si>
+    <t>虚假申报监控</t>
+  </si>
+  <si>
+    <t>集合竞价时段交易价格监控</t>
+  </si>
+  <si>
+    <t>不活跃合约价格异常变动监控</t>
+  </si>
+  <si>
+    <t>不活跃合约客户盈亏异常监控</t>
+  </si>
+  <si>
+    <t>客户个体违规指标</t>
+  </si>
+  <si>
+    <t>自买自卖</t>
+  </si>
+  <si>
+    <t>对敲</t>
+  </si>
+  <si>
+    <t>交割月合约监控指标</t>
+  </si>
+  <si>
+    <t>交割月合约波动率</t>
+  </si>
+  <si>
+    <t>交割月合约仓单持仓量比</t>
+  </si>
+  <si>
+    <t>交割月合约的特定监控</t>
+  </si>
+  <si>
+    <t>关联客户群跟踪情况指标</t>
+  </si>
+  <si>
+    <t>关联客户群成交量</t>
+  </si>
+  <si>
+    <t>关联客户群持仓量</t>
+  </si>
+  <si>
+    <t>关联客户群盈亏</t>
+  </si>
+  <si>
+    <t>所有用户数，横轴时间，纵轴用户数，可展现总数、个人和机构占比</t>
+  </si>
+  <si>
+    <t>风险评分</t>
+  </si>
+  <si>
+    <t>同大宗，区域颜色代表客户密集度，投融资人分两个图展示</t>
+  </si>
+  <si>
+    <t>盈亏排名</t>
+  </si>
+  <si>
+    <t>所有投资人盈亏总额排名</t>
+  </si>
+  <si>
+    <t>客户数量统计</t>
+  </si>
+  <si>
+    <t>客户分类</t>
+  </si>
+  <si>
+    <t>根据客户活跃度、投资金额、风险指标，将客户分类展示各层级比例</t>
+  </si>
+  <si>
+    <t>指标（投资人、融资人）</t>
+  </si>
+  <si>
+    <t>内环各市场累计融资额占比，外环各产品大类累计融资额占比</t>
+  </si>
+  <si>
+    <t>融资人本月单笔融资金额排名</t>
+  </si>
+  <si>
+    <t>累计融资趋势</t>
+  </si>
+  <si>
+    <t>横轴时间纵轴金额，每个市场一条线展示月手续费收入趋势图、总线</t>
+  </si>
+  <si>
+    <t>融资人累计融资排名</t>
+  </si>
+  <si>
+    <t>内环市场总成交笔数占比、外环各产品成交笔数占比</t>
+  </si>
+  <si>
+    <t>投资人单笔金额笔数排名</t>
+  </si>
+  <si>
+    <t>投资人频繁交易排名</t>
+  </si>
+  <si>
+    <t>投资人总持仓金额排名</t>
+  </si>
+  <si>
+    <t>客户持仓金额趋势图</t>
+  </si>
+  <si>
+    <t>舆情事件</t>
+  </si>
+  <si>
+    <t>热点搜索</t>
+  </si>
+  <si>
+    <t>网络舆情信息查看</t>
+  </si>
+  <si>
+    <t>市场舆情分类</t>
+  </si>
+  <si>
+    <t>分市场展示舆情信息分类（客户、资金、交易、产品、宣传、操作）</t>
+  </si>
+  <si>
+    <t>内环市场发售产品总数占比，外环产品大类占比</t>
+  </si>
+  <si>
+    <t>累计发售产品趋势</t>
+  </si>
+  <si>
+    <t>逾期产品占比</t>
+  </si>
+  <si>
+    <t>累计逾期产品占比</t>
+  </si>
+  <si>
+    <t>投融资关系图</t>
+  </si>
+  <si>
+    <t>信息查看</t>
+  </si>
+  <si>
+    <t>查看工商信息</t>
+  </si>
+  <si>
+    <t>产品风险监控</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>发行人风险监控</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标对比</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常成交明细列表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>已交易产品最高利率趋势</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>已交易产品平均利率趋势</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品收益率排名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品收益额排名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>单笔融资金额排名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>换成数值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>月手续费收入趋势</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>未结清产品最高利率趋势</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -815,619 +1416,20 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>越大，该市场风险越大；
   当β=0时，市场风险绿色区域；0&lt;β&lt;=10,市场风险黄色区域；当β》10时，市场风险红色区域</t>
     </r>
-  </si>
-  <si>
-    <t>说明</t>
-  </si>
-  <si>
-    <t>市场以圆形代表，大小表示客户规模，颜色表示风险系数，位置表示分布</t>
-  </si>
-  <si>
-    <t>风险一级指标占比</t>
-  </si>
-  <si>
-    <t>累计融资额</t>
-  </si>
-  <si>
-    <t>所有市场总额，横轴时间，纵轴累计融资金额</t>
-  </si>
-  <si>
-    <t>所有市场风险事件明细按时间先后顺序展示</t>
-  </si>
-  <si>
-    <t>分市场叠加的雷达图，可点选某市场某风险</t>
-  </si>
-  <si>
-    <t>风险统计</t>
-  </si>
-  <si>
-    <t>某市场某风险数量统计表</t>
-  </si>
-  <si>
-    <t>市场维度风险趋势</t>
-  </si>
-  <si>
-    <t>某市场某风险趋势图，横轴时间，纵轴数量</t>
-  </si>
-  <si>
-    <t>某市场某风险明细，按时间先后顺序展示</t>
-  </si>
-  <si>
-    <t>风险系数</t>
-  </si>
-  <si>
-    <t>每月加权评分，横轴时间，按月展示最近一年的</t>
-  </si>
-  <si>
-    <t>内环市场风险数占比，外环为风险二级指标占比</t>
-  </si>
-  <si>
-    <t>指标维度风险趋势</t>
-  </si>
-  <si>
-    <t>横轴时间，纵轴数量，每类风险一条趋势线、总线</t>
-  </si>
-  <si>
-    <t>各二级指标市场占比展示</t>
-  </si>
-  <si>
-    <t>规模及分布监控</t>
-  </si>
-  <si>
-    <t>横轴时间纵轴数量，矩形代表总量，投资人新用户、注销户、活跃户各一条线</t>
-  </si>
-  <si>
-    <t>投资人，内环区域中环省外环市</t>
-  </si>
-  <si>
-    <t>横轴时间纵轴金额，每个市场一条线展示已完成的融资金额趋势图、总线</t>
-  </si>
-  <si>
-    <t>累计融资占比</t>
-  </si>
-  <si>
-    <t>内环各地区累计融资额占比，外环各市场累计融资额占比</t>
-  </si>
-  <si>
-    <t>成交趋势</t>
-  </si>
-  <si>
-    <t>横轴时间纵轴数量，每市场一条线展示成交数量走势、总线</t>
-  </si>
-  <si>
-    <t>成交分布</t>
-  </si>
-  <si>
-    <t>内环各地区总成交笔数占比、外环各市场成交笔数占比</t>
-  </si>
-  <si>
-    <t>累计发售产品数量</t>
-  </si>
-  <si>
-    <t>横轴时间纵轴数量和金额，累计发售产品的数量和金额走势，区分在售和未结清（分市场）</t>
-  </si>
-  <si>
-    <t>发售产品占比</t>
-  </si>
-  <si>
-    <t>内环各地区发售产品总数占比，外环各市场大类占比</t>
-  </si>
-  <si>
-    <t>发行人数量</t>
-  </si>
-  <si>
-    <t>横轴时间纵轴数量，矩形代表总量，发行人新用户、注销户、活跃户各一条线</t>
-  </si>
-  <si>
-    <t>发行人省市占比</t>
-  </si>
-  <si>
-    <t>内环区域中环省外环市</t>
-  </si>
-  <si>
-    <t>累计融资金额排名</t>
-  </si>
-  <si>
-    <t>融资人累计融资排名及前三趋势</t>
-  </si>
-  <si>
-    <t>逾期客户占比</t>
-  </si>
-  <si>
-    <t>违约客户占比</t>
-  </si>
-  <si>
-    <t>产品周期占比</t>
-  </si>
-  <si>
-    <t>各期限产品占比</t>
-  </si>
-  <si>
-    <t>已交易产品最高利率趋势</t>
-  </si>
-  <si>
-    <t>按月</t>
-  </si>
-  <si>
-    <t>已交易产品平均利率趋势</t>
-  </si>
-  <si>
-    <t>显示前三的发行人</t>
-  </si>
-  <si>
-    <t>单笔融资金额排名</t>
-  </si>
-  <si>
-    <t>异常成交监控</t>
-  </si>
-  <si>
-    <t>异常成交占比趋势图，按月统计，展示最近一年的</t>
-  </si>
-  <si>
-    <t>亏损产品占比</t>
-  </si>
-  <si>
-    <t>累计亏损产品占比</t>
-  </si>
-  <si>
-    <t>客户风险管理</t>
-  </si>
-  <si>
-    <t>市场维度客户数量走势图</t>
-  </si>
-  <si>
-    <t>每市场一条线展示各市场客户数量走势</t>
-  </si>
-  <si>
-    <t>客户持仓金额</t>
-  </si>
-  <si>
-    <t>横轴时间纵轴金额，当日客户持仓金额趋势图</t>
-  </si>
-  <si>
-    <t>显示总纠纷数和未处理纠纷数</t>
-  </si>
-  <si>
-    <t>亏损客户占比</t>
-  </si>
-  <si>
-    <t>资金风险监控</t>
-  </si>
-  <si>
-    <t>月手续费收入趋势</t>
-  </si>
-  <si>
-    <t>横轴时间纵轴金额，每个市场一条线展示手续费收入趋势图、总线</t>
-  </si>
-  <si>
-    <t>亏损金额占比</t>
-  </si>
-  <si>
-    <t>亏损金额占融资金额比例</t>
-  </si>
-  <si>
-    <t>未结清融资金额趋势</t>
-  </si>
-  <si>
-    <t>横轴时间纵轴金额，每个市场一条线展示还未结清的融资金额趋势、总线</t>
-  </si>
-  <si>
-    <t>未结清产品最高利率趋势</t>
-  </si>
-  <si>
-    <t>未结清产品平均利率趋势</t>
-  </si>
-  <si>
-    <t>资金流水</t>
-  </si>
-  <si>
-    <t>显示最近5个工作日资金流水，日期、借方（增加）、贷方（减少）、轧差</t>
-  </si>
-  <si>
-    <t>本周融资、兑付流水，按时间顺序展示</t>
-  </si>
-  <si>
-    <t>洗钱风险监控</t>
-  </si>
-  <si>
-    <t>投资人单笔金额笔数排名，显示前三账户信息及近期交易流水</t>
-  </si>
-  <si>
-    <t>投资人频繁交易排名，显示前三账户信息及近期交易流水</t>
-  </si>
-  <si>
-    <t>投资人总持仓金额排名，显示前三账户信息及近期交易流水</t>
-  </si>
-  <si>
-    <t>舆情监控</t>
-  </si>
-  <si>
-    <t>内环市场舆情数占比，外环二级指标占比</t>
-  </si>
-  <si>
-    <t>舆情走势</t>
-  </si>
-  <si>
-    <t>每市场一条线舆情数量走势、总线</t>
-  </si>
-  <si>
-    <t>事件展示</t>
-  </si>
-  <si>
-    <t>舆情指标预警的事件，按时间先后顺序展示</t>
-  </si>
-  <si>
-    <t>工商
-监控</t>
-  </si>
-  <si>
-    <t>指标预警的事件，按时间先后顺序展示</t>
-  </si>
-  <si>
-    <t>关系图</t>
-  </si>
-  <si>
-    <t>投资人、融资人关系图</t>
-  </si>
-  <si>
-    <t>客户</t>
-  </si>
-  <si>
-    <t>投资者开户数</t>
-  </si>
-  <si>
-    <t>机构投资者开户数</t>
-  </si>
-  <si>
-    <t>个人投资者开户数</t>
-  </si>
-  <si>
-    <t>资金</t>
-  </si>
-  <si>
-    <t>客户资金余额</t>
-  </si>
-  <si>
-    <t>手续费收入</t>
-  </si>
-  <si>
-    <t>前10大融资人融资余额</t>
-  </si>
-  <si>
-    <t>前10大投资人持仓余额</t>
-  </si>
-  <si>
-    <t>平台累计融资金额</t>
-  </si>
-  <si>
-    <t>交易</t>
-  </si>
-  <si>
-    <t>成交金额</t>
-  </si>
-  <si>
-    <t>产品</t>
-  </si>
-  <si>
-    <t>本年已交易产品最高利率</t>
-  </si>
-  <si>
-    <t>本年已交易产品加权平均利率</t>
-  </si>
-  <si>
-    <t>未结清产品最高利率</t>
-  </si>
-  <si>
-    <t>未结清产品加权平均利率</t>
-  </si>
-  <si>
-    <t>开业来累计发售产品数量</t>
-  </si>
-  <si>
-    <t>在售产品数量</t>
-  </si>
-  <si>
-    <t>未结清产品数量</t>
-  </si>
-  <si>
-    <t>未结清产品余额</t>
-  </si>
-  <si>
-    <t>逾期未结清产品数量</t>
-  </si>
-  <si>
-    <t>逾期未结清产品余额</t>
-  </si>
-  <si>
-    <t>规模类</t>
-  </si>
-  <si>
-    <t>成交量</t>
-  </si>
-  <si>
-    <t>成交额</t>
-  </si>
-  <si>
-    <t>持仓量</t>
-  </si>
-  <si>
-    <t>资金量</t>
-  </si>
-  <si>
-    <t>停板个数</t>
-  </si>
-  <si>
-    <t>价格联动性分析指标</t>
-  </si>
-  <si>
-    <t>波动率</t>
-  </si>
-  <si>
-    <t>振幅率</t>
-  </si>
-  <si>
-    <t>N日波动率</t>
-  </si>
-  <si>
-    <t>国内外市场价格联动性分析</t>
-  </si>
-  <si>
-    <t>期现货市场价格联动性分析</t>
-  </si>
-  <si>
-    <t>合约间价差率分析</t>
-  </si>
-  <si>
-    <t>分布及对比指标</t>
-  </si>
-  <si>
-    <t>会员成交量集中度</t>
-  </si>
-  <si>
-    <t>会员持仓量集中度</t>
-  </si>
-  <si>
-    <t>会员盈亏集中度</t>
-  </si>
-  <si>
-    <t>会员资金量集中度</t>
-  </si>
-  <si>
-    <t>客户成交量集中度</t>
-  </si>
-  <si>
-    <t>客户持仓量集中度</t>
-  </si>
-  <si>
-    <t>客户盈亏集中度</t>
-  </si>
-  <si>
-    <t>个体指标</t>
-  </si>
-  <si>
-    <t>持仓量达限仓百分比</t>
-  </si>
-  <si>
-    <t>合约单笔成交量或者委托量</t>
-  </si>
-  <si>
-    <t>合约盈亏率</t>
-  </si>
-  <si>
-    <t>会员盈亏资金比</t>
-  </si>
-  <si>
-    <t>会员资金增减</t>
-  </si>
-  <si>
-    <t>会员结算准备金余额</t>
-  </si>
-  <si>
-    <t>市场影响指标</t>
-  </si>
-  <si>
-    <t>连续交易影响价格违规行为监控</t>
-  </si>
-  <si>
-    <t>约定交易影响价格违规行为监控</t>
-  </si>
-  <si>
-    <t>虚假申报监控</t>
-  </si>
-  <si>
-    <t>集合竞价时段交易价格监控</t>
-  </si>
-  <si>
-    <t>不活跃合约价格异常变动监控</t>
-  </si>
-  <si>
-    <t>不活跃合约客户盈亏异常监控</t>
-  </si>
-  <si>
-    <t>客户个体违规指标</t>
-  </si>
-  <si>
-    <t>自买自卖</t>
-  </si>
-  <si>
-    <t>对敲</t>
-  </si>
-  <si>
-    <t>交割月合约监控指标</t>
-  </si>
-  <si>
-    <t>交割月合约波动率</t>
-  </si>
-  <si>
-    <t>交割月合约仓单持仓量比</t>
-  </si>
-  <si>
-    <t>交割月合约的特定监控</t>
-  </si>
-  <si>
-    <t>关联客户群跟踪情况指标</t>
-  </si>
-  <si>
-    <t>关联客户群成交量</t>
-  </si>
-  <si>
-    <t>关联客户群持仓量</t>
-  </si>
-  <si>
-    <t>关联客户群盈亏</t>
-  </si>
-  <si>
-    <t>所有用户数，横轴时间，纵轴用户数，可展现总数、个人和机构占比</t>
-  </si>
-  <si>
-    <t>风险评分</t>
-  </si>
-  <si>
-    <t>同大宗，区域颜色代表客户密集度，投融资人分两个图展示</t>
-  </si>
-  <si>
-    <t>盈亏排名</t>
-  </si>
-  <si>
-    <t>所有投资人盈亏总额排名</t>
-  </si>
-  <si>
-    <t>客户数量统计</t>
-  </si>
-  <si>
-    <t>客户分类</t>
-  </si>
-  <si>
-    <t>根据客户活跃度、投资金额、风险指标，将客户分类展示各层级比例</t>
-  </si>
-  <si>
-    <t>指标（投资人、融资人）</t>
-  </si>
-  <si>
-    <t>内环各市场累计融资额占比，外环各产品大类累计融资额占比</t>
-  </si>
-  <si>
-    <t>融资人本月单笔融资金额排名</t>
-  </si>
-  <si>
-    <t>累计融资趋势</t>
-  </si>
-  <si>
-    <t>横轴时间纵轴金额，每个市场一条线展示月手续费收入趋势图、总线</t>
-  </si>
-  <si>
-    <t>融资人累计融资排名</t>
-  </si>
-  <si>
-    <t>内环市场总成交笔数占比、外环各产品成交笔数占比</t>
-  </si>
-  <si>
-    <t>投资人单笔金额笔数排名</t>
-  </si>
-  <si>
-    <t>投资人频繁交易排名</t>
-  </si>
-  <si>
-    <t>投资人总持仓金额排名</t>
-  </si>
-  <si>
-    <t>客户持仓金额趋势图</t>
-  </si>
-  <si>
-    <t>舆情事件</t>
-  </si>
-  <si>
-    <t>热点搜索</t>
-  </si>
-  <si>
-    <t>网络舆情信息查看</t>
-  </si>
-  <si>
-    <t>市场舆情分类</t>
-  </si>
-  <si>
-    <t>分市场展示舆情信息分类（客户、资金、交易、产品、宣传、操作）</t>
-  </si>
-  <si>
-    <t>内环市场发售产品总数占比，外环产品大类占比</t>
-  </si>
-  <si>
-    <t>累计发售产品趋势</t>
-  </si>
-  <si>
-    <t>逾期产品占比</t>
-  </si>
-  <si>
-    <t>累计逾期产品占比</t>
-  </si>
-  <si>
-    <t>投融资关系图</t>
-  </si>
-  <si>
-    <t>信息查看</t>
-  </si>
-  <si>
-    <t>查看工商信息</t>
-  </si>
-  <si>
-    <t>产品风险监控</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>发行人风险监控</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标对比</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常成交明细列表</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>已交易产品最高利率趋势</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>已交易产品平均利率趋势</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品收益率排名</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品收益额排名</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>单笔融资金额排名</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>换成数值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>月手续费收入趋势</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>未结清产品最高利率趋势</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1439,12 +1441,14 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1452,6 +1456,7 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1459,6 +1464,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1466,6 +1472,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1479,11 +1486,13 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1770,10 +1779,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1799,11 +1808,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1831,19 +1840,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>266065</xdr:colOff>
+      <xdr:colOff>237490</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1856,7 +1871,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1495425" y="5248275"/>
+          <a:off x="1466850" y="5248275"/>
           <a:ext cx="5504815" cy="1285875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2166,7 +2181,7 @@
       <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.25" style="1" customWidth="1"/>
@@ -2175,7 +2190,7 @@
     <col min="5" max="5" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2190,8 +2205,8 @@
       </c>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="69" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2204,8 +2219,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="70"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="69"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2216,8 +2231,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="70"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="69"/>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2226,8 +2241,8 @@
       </c>
       <c r="D4" s="68"/>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="70"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="69"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2236,8 +2251,8 @@
       </c>
       <c r="D5" s="68"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="70"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="69"/>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2246,12 +2261,12 @@
       </c>
       <c r="D6" s="68"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="D7" s="17"/>
     </row>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A8" s="70" t="s">
+    <row r="8" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="69" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2264,8 +2279,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="70"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="69"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -2276,8 +2291,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="70"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="69"/>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
@@ -2285,8 +2300,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="70"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="69"/>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2297,11 +2312,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="70" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="69" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2314,8 +2329,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="70"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="69"/>
       <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
@@ -2324,8 +2339,8 @@
       </c>
       <c r="D14" s="68"/>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="70"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="69"/>
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
@@ -2336,19 +2351,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="70"/>
-      <c r="B16" s="69" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="69"/>
+      <c r="B16" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="70" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="69" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2361,8 +2376,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="70"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="69"/>
       <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
@@ -2373,8 +2388,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="70"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="69"/>
       <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
@@ -2388,8 +2403,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="70"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="69"/>
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
@@ -2400,8 +2415,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="70"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="69"/>
       <c r="B23" s="1" t="s">
         <v>37</v>
       </c>
@@ -2415,8 +2430,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="70"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="69"/>
       <c r="B24" s="1" t="s">
         <v>40</v>
       </c>
@@ -2427,8 +2442,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="70"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="69"/>
       <c r="B25" s="1" t="s">
         <v>42</v>
       </c>
@@ -2439,8 +2454,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="70"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="69"/>
       <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
@@ -2451,8 +2466,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="70"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="69"/>
       <c r="B27" s="1" t="s">
         <v>45</v>
       </c>
@@ -2463,8 +2478,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="70"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="69"/>
       <c r="B28" s="1" t="s">
         <v>46</v>
       </c>
@@ -2478,11 +2493,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="70" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="69" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2495,16 +2510,16 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="70"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="69"/>
       <c r="B32" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C32" s="68"/>
       <c r="D32" s="68"/>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="70"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="69"/>
       <c r="B33" s="1" t="s">
         <v>53</v>
       </c>
@@ -2518,8 +2533,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="70"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="69"/>
       <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
@@ -2533,8 +2548,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="70"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="69"/>
       <c r="B35" s="1" t="s">
         <v>59</v>
       </c>
@@ -2545,8 +2560,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="70"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="69"/>
       <c r="B36" s="1" t="s">
         <v>61</v>
       </c>
@@ -2557,8 +2572,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="70"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="69"/>
       <c r="B37" s="1" t="s">
         <v>63</v>
       </c>
@@ -2572,8 +2587,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="70" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="69" t="s">
         <v>66</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2586,8 +2601,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="70"/>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="69"/>
       <c r="B40" s="1" t="s">
         <v>68</v>
       </c>
@@ -2597,8 +2612,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="70"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="69"/>
       <c r="B41" s="1" t="s">
         <v>69</v>
       </c>
@@ -2609,8 +2624,8 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="70"/>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="69"/>
       <c r="B42" s="1" t="s">
         <v>71</v>
       </c>
@@ -2624,8 +2639,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="70"/>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="69"/>
       <c r="B43" s="1" t="s">
         <v>74</v>
       </c>
@@ -2636,8 +2651,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="70"/>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="69"/>
       <c r="B44" s="1" t="s">
         <v>76</v>
       </c>
@@ -2648,8 +2663,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="70"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="69"/>
       <c r="B45" s="1" t="s">
         <v>78</v>
       </c>
@@ -2663,8 +2678,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="70"/>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="69"/>
       <c r="B46" s="1" t="s">
         <v>80</v>
       </c>
@@ -2675,11 +2690,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="15"/>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="70" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="69" t="s">
         <v>82</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -2692,8 +2707,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="70"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="69"/>
       <c r="B50" s="1" t="s">
         <v>85</v>
       </c>
@@ -2707,8 +2722,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="70"/>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="69"/>
       <c r="B51" s="1" t="s">
         <v>88</v>
       </c>
@@ -2717,8 +2732,8 @@
       </c>
       <c r="D51" s="64"/>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="70"/>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="69"/>
       <c r="B52" s="1" t="s">
         <v>89</v>
       </c>
@@ -2729,11 +2744,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="15"/>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="70" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="69" t="s">
         <v>91</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -2746,8 +2761,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="70"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="69"/>
       <c r="B57" s="1" t="s">
         <v>94</v>
       </c>
@@ -2758,8 +2773,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="70"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="69"/>
       <c r="B58" s="1" t="s">
         <v>96</v>
       </c>
@@ -2770,8 +2785,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="70"/>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="69"/>
       <c r="B59" s="1" t="s">
         <v>97</v>
       </c>
@@ -2779,8 +2794,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="70"/>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="69"/>
       <c r="B60" s="1" t="s">
         <v>99</v>
       </c>
@@ -2794,8 +2809,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="70"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="69"/>
       <c r="B61" s="1" t="s">
         <v>101</v>
       </c>
@@ -2809,8 +2824,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="70"/>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="69"/>
       <c r="B62" s="1" t="s">
         <v>102</v>
       </c>
@@ -2824,10 +2839,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="15"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="68" t="s">
         <v>103</v>
       </c>
@@ -2841,7 +2856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="68"/>
       <c r="B66" s="1" t="s">
         <v>105</v>
@@ -2853,10 +2868,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="17"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>106</v>
       </c>
@@ -2864,16 +2879,16 @@
         <v>107</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C72" s="69" t="s">
+      <c r="C72" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="69"/>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="D72" s="70"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>110</v>
       </c>
@@ -2887,7 +2902,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
         <v>112</v>
       </c>
@@ -2898,7 +2913,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
         <v>113</v>
       </c>
@@ -2907,14 +2922,14 @@
       </c>
       <c r="D77" s="68"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B78" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C78" s="68"/>
       <c r="D78" s="68"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B79" s="1" t="s">
         <v>116</v>
       </c>
@@ -2925,7 +2940,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B80" s="1" t="s">
         <v>118</v>
       </c>
@@ -2939,7 +2954,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>120</v>
       </c>
@@ -2947,22 +2962,22 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D84" s="68"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D85" s="68"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D86" s="17"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>124</v>
       </c>
@@ -2972,11 +2987,10 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A39:A46"/>
-    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="C77:D78"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="C72:D72"/>
     <mergeCell ref="A56:A62"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="C31:C32"/>
@@ -2986,11 +3000,12 @@
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A19:A28"/>
     <mergeCell ref="A31:A37"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A39:A46"/>
+    <mergeCell ref="A49:A52"/>
     <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="C77:D78"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="C72:D72"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3006,7 +3021,7 @@
       <selection activeCell="E14" sqref="E14:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
@@ -3017,7 +3032,7 @@
     <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="62" t="s">
         <v>126</v>
       </c>
@@ -3046,7 +3061,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3075,7 +3090,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -3104,7 +3119,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -3133,7 +3148,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -3162,7 +3177,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -3191,7 +3206,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -3220,7 +3235,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -3249,7 +3264,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -3278,7 +3293,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -3307,7 +3322,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -3336,7 +3351,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -3365,7 +3380,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -3394,7 +3409,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -3423,7 +3438,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="17">
         <v>14</v>
       </c>
@@ -3452,7 +3467,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -3481,7 +3496,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -3510,7 +3525,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -3539,7 +3554,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -3568,7 +3583,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -3597,7 +3612,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="17">
         <v>20</v>
       </c>
@@ -3620,17 +3635,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="17">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="17">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -3646,11 +3661,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H2:H27"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="4" width="21.25" customWidth="1"/>
     <col min="5" max="5" width="6.625" customWidth="1"/>
@@ -3662,7 +3677,7 @@
     <col min="12" max="12" width="35.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.25">
+    <row r="1" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>126</v>
       </c>
@@ -3700,7 +3715,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -3734,7 +3749,7 @@
       <c r="K2" s="26"/>
       <c r="O2" s="17"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="26">
         <v>2</v>
       </c>
@@ -3764,7 +3779,7 @@
       <c r="K3" s="26"/>
       <c r="O3" s="17"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="26">
         <v>3</v>
       </c>
@@ -3794,7 +3809,7 @@
       <c r="K4" s="26"/>
       <c r="O4" s="17"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="30">
         <v>4</v>
       </c>
@@ -3828,7 +3843,7 @@
       <c r="K5" s="30"/>
       <c r="O5" s="17"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="30">
         <v>5</v>
       </c>
@@ -3856,7 +3871,7 @@
       <c r="K6" s="30"/>
       <c r="O6" s="17"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="30">
         <v>6</v>
       </c>
@@ -3886,7 +3901,7 @@
       <c r="K7" s="30"/>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="30">
         <v>7</v>
       </c>
@@ -3916,7 +3931,7 @@
       <c r="K8" s="30"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="30">
         <v>8</v>
       </c>
@@ -3946,7 +3961,7 @@
       <c r="K9" s="30"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="30">
         <v>9</v>
       </c>
@@ -3976,7 +3991,7 @@
       <c r="K10" s="30"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="30">
         <v>12</v>
       </c>
@@ -4005,7 +4020,7 @@
       </c>
       <c r="K11" s="30"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="30">
         <v>13</v>
       </c>
@@ -4034,7 +4049,7 @@
       </c>
       <c r="K12" s="30"/>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1">
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="36">
         <v>14</v>
       </c>
@@ -4067,7 +4082,7 @@
       </c>
       <c r="K13" s="37"/>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1">
+    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="36">
         <v>15</v>
       </c>
@@ -4096,7 +4111,7 @@
       </c>
       <c r="K14" s="37"/>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1">
+    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="36">
         <v>16</v>
       </c>
@@ -4125,7 +4140,7 @@
       </c>
       <c r="K15" s="37"/>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1">
+    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="36">
         <v>17</v>
       </c>
@@ -4155,7 +4170,7 @@
       <c r="K16" s="37"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="1:14" s="1" customFormat="1">
+    <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="36">
         <v>18</v>
       </c>
@@ -4185,7 +4200,7 @@
       <c r="K17" s="37"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="1:14" s="1" customFormat="1">
+    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="36">
         <v>19</v>
       </c>
@@ -4214,7 +4229,7 @@
       </c>
       <c r="K18" s="37"/>
     </row>
-    <row r="19" spans="1:14" s="1" customFormat="1">
+    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="43">
         <v>20</v>
       </c>
@@ -4247,7 +4262,7 @@
       </c>
       <c r="K19" s="44"/>
     </row>
-    <row r="20" spans="1:14" s="1" customFormat="1">
+    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="46">
         <v>21</v>
       </c>
@@ -4280,7 +4295,7 @@
       </c>
       <c r="K20" s="47"/>
     </row>
-    <row r="21" spans="1:14" s="1" customFormat="1">
+    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="46">
         <v>22</v>
       </c>
@@ -4309,7 +4324,7 @@
       </c>
       <c r="K21" s="47"/>
     </row>
-    <row r="22" spans="1:14" s="1" customFormat="1">
+    <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="46">
         <v>23</v>
       </c>
@@ -4338,7 +4353,7 @@
       </c>
       <c r="K22" s="47"/>
     </row>
-    <row r="23" spans="1:14" s="1" customFormat="1">
+    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="50">
         <v>24</v>
       </c>
@@ -4371,7 +4386,7 @@
       </c>
       <c r="K23" s="51"/>
     </row>
-    <row r="24" spans="1:14" s="1" customFormat="1">
+    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="50">
         <v>25</v>
       </c>
@@ -4400,7 +4415,7 @@
       </c>
       <c r="K24" s="51"/>
     </row>
-    <row r="25" spans="1:14" s="1" customFormat="1">
+    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="50">
         <v>26</v>
       </c>
@@ -4429,7 +4444,7 @@
       </c>
       <c r="K25" s="51"/>
     </row>
-    <row r="26" spans="1:14" s="1" customFormat="1">
+    <row r="26" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="52">
         <v>27</v>
       </c>
@@ -4462,7 +4477,7 @@
       </c>
       <c r="K26" s="53"/>
     </row>
-    <row r="27" spans="1:14" s="1" customFormat="1">
+    <row r="27" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="52">
         <v>28</v>
       </c>
@@ -4491,18 +4506,18 @@
       </c>
       <c r="K27" s="53"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="N30" s="17"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C31" s="71" t="s">
-        <v>257</v>
+        <v>453</v>
       </c>
       <c r="D31" s="72"/>
       <c r="E31" s="72"/>
@@ -4511,7 +4526,7 @@
       <c r="H31" s="72"/>
       <c r="N31" s="17"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C32" s="72"/>
       <c r="D32" s="72"/>
       <c r="E32" s="72"/>
@@ -4520,7 +4535,7 @@
       <c r="H32" s="72"/>
       <c r="N32" s="17"/>
     </row>
-    <row r="33" spans="3:14">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C33" s="72"/>
       <c r="D33" s="72"/>
       <c r="E33" s="72"/>
@@ -4529,7 +4544,7 @@
       <c r="H33" s="72"/>
       <c r="N33" s="17"/>
     </row>
-    <row r="34" spans="3:14">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C34" s="72"/>
       <c r="D34" s="72"/>
       <c r="E34" s="72"/>
@@ -4538,7 +4553,7 @@
       <c r="H34" s="72"/>
       <c r="N34" s="17"/>
     </row>
-    <row r="35" spans="3:14">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C35" s="72"/>
       <c r="D35" s="72"/>
       <c r="E35" s="72"/>
@@ -4547,7 +4562,7 @@
       <c r="H35" s="72"/>
       <c r="N35" s="17"/>
     </row>
-    <row r="36" spans="3:14">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C36" s="72"/>
       <c r="D36" s="72"/>
       <c r="E36" s="72"/>
@@ -4556,7 +4571,7 @@
       <c r="H36" s="72"/>
       <c r="N36" s="17"/>
     </row>
-    <row r="37" spans="3:14">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C37" s="72"/>
       <c r="D37" s="72"/>
       <c r="E37" s="72"/>
@@ -4565,7 +4580,7 @@
       <c r="H37" s="72"/>
       <c r="N37" s="17"/>
     </row>
-    <row r="38" spans="3:14">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C38" s="72"/>
       <c r="D38" s="72"/>
       <c r="E38" s="72"/>
@@ -4574,7 +4589,7 @@
       <c r="H38" s="72"/>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="3:14">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C39" s="72"/>
       <c r="D39" s="72"/>
       <c r="E39" s="72"/>
@@ -4582,7 +4597,7 @@
       <c r="G39" s="72"/>
       <c r="H39" s="72"/>
     </row>
-    <row r="40" spans="3:14">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C40" s="72"/>
       <c r="D40" s="72"/>
       <c r="E40" s="72"/>
@@ -4590,7 +4605,7 @@
       <c r="G40" s="72"/>
       <c r="H40" s="72"/>
     </row>
-    <row r="41" spans="3:14">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.15">
       <c r="C41" s="72"/>
       <c r="D41" s="72"/>
       <c r="E41" s="72"/>
@@ -4624,11 +4639,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="23.375" customWidth="1"/>
@@ -4638,7 +4653,7 @@
     <col min="8" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -4646,401 +4661,401 @@
         <v>1</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E1" s="19"/>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="80" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="79" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="23"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="80"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="79"/>
       <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
       <c r="H3" s="23"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="80"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="79"/>
       <c r="B4" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>261</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>262</v>
       </c>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="80"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="79"/>
       <c r="B5" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="20"/>
       <c r="B6" s="21"/>
       <c r="C6" s="24"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="80" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="79" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="79"/>
+      <c r="B8" s="21" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="80"/>
-      <c r="B8" s="21" t="s">
+      <c r="C8" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="79"/>
+      <c r="B9" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="80"/>
-      <c r="B9" s="21" t="s">
+      <c r="C9" s="14" t="s">
         <v>267</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>268</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="80"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="79"/>
       <c r="B10" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="79"/>
+      <c r="B11" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="80"/>
-      <c r="B11" s="21" t="s">
+      <c r="C11" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="C11" s="65" t="s">
-        <v>271</v>
-      </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="80" t="s">
-        <v>444</v>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="79" t="s">
+        <v>443</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="80"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="79"/>
       <c r="B14" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>273</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>274</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="80"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="79"/>
       <c r="B15" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="70" t="s">
-        <v>276</v>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="69" t="s">
+        <v>275</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="70"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="69"/>
       <c r="B18" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="70"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="69"/>
       <c r="B19" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="69"/>
+      <c r="B20" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="70"/>
-      <c r="B20" s="22" t="s">
+      <c r="C20" s="17" t="s">
         <v>280</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>281</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="70"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="69"/>
       <c r="B21" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>282</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>283</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="22"/>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="70"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="69"/>
       <c r="B22" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="69"/>
+      <c r="B23" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="70"/>
-      <c r="B23" s="22" t="s">
+      <c r="C23" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="69"/>
+      <c r="B24" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="70"/>
-      <c r="B24" s="22" t="s">
+      <c r="C24" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="70" t="s">
-        <v>443</v>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="69" t="s">
+        <v>442</v>
       </c>
       <c r="B26" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="69"/>
+      <c r="B27" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="70"/>
-      <c r="B27" s="22" t="s">
+      <c r="C27" s="65" t="s">
         <v>292</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="69"/>
+      <c r="B28" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="70"/>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="69"/>
+      <c r="B29" s="1" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="70"/>
-      <c r="B29" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="70"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="69"/>
       <c r="B30" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="70" t="s">
-        <v>442</v>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="69" t="s">
+        <v>441</v>
       </c>
       <c r="B32" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="F32" s="22"/>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="70"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="69"/>
       <c r="B33" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="69"/>
+      <c r="B34" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="70"/>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="69"/>
+      <c r="B35" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="70"/>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="69"/>
+      <c r="B36" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="70"/>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="69"/>
+      <c r="B37" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="70"/>
-      <c r="B37" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="70"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="69"/>
       <c r="B38" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="70"/>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="69"/>
       <c r="B39" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="70" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="69" t="s">
+        <v>308</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="70"/>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="69"/>
       <c r="B42" s="22" t="s">
         <v>40</v>
       </c>
@@ -5049,31 +5064,31 @@
       </c>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="70"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="69"/>
       <c r="B43" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="70"/>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="69"/>
       <c r="B44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="70"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="69"/>
       <c r="B45" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>1</v>
@@ -5081,10 +5096,10 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="70"/>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="69"/>
       <c r="B46" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>1</v>
@@ -5092,210 +5107,210 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="70" t="s">
-        <v>316</v>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="69" t="s">
+        <v>315</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="70"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="69"/>
       <c r="B49" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>319</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>320</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:7" ht="18" customHeight="1">
-      <c r="A50" s="70"/>
+    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="69"/>
       <c r="B50" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C50" s="67" t="s">
         <v>321</v>
       </c>
-      <c r="C50" s="67" t="s">
-        <v>322</v>
-      </c>
       <c r="D50" s="68" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" ht="21" customHeight="1">
-      <c r="A51" s="70"/>
+    <row r="51" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="69"/>
       <c r="B51" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C51" s="65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D51" s="68"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:7" ht="21" customHeight="1">
-      <c r="A52" s="70"/>
+    <row r="52" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="69"/>
       <c r="B52" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C52" s="65" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D52" s="68"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="17"/>
     </row>
-    <row r="53" spans="1:7" ht="18" customHeight="1">
-      <c r="A53" s="70"/>
+    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="69"/>
       <c r="B53" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C53" s="65" t="s">
         <v>325</v>
-      </c>
-      <c r="C53" s="65" t="s">
-        <v>326</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:7" ht="21" customHeight="1">
-      <c r="A54" s="70"/>
+    <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="69"/>
       <c r="B54" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="17"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="15"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:7" ht="27" customHeight="1">
-      <c r="A56" s="70" t="s">
-        <v>328</v>
+    <row r="56" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="69" t="s">
+        <v>327</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>74</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:7" ht="27" customHeight="1">
-      <c r="A57" s="70"/>
+    <row r="57" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="69"/>
       <c r="B57" s="17" t="s">
         <v>76</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="17"/>
     </row>
-    <row r="58" spans="1:7" ht="30" customHeight="1">
-      <c r="A58" s="70"/>
+    <row r="58" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="69"/>
       <c r="B58" s="17" t="s">
         <v>78</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="15"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:7" ht="18" customHeight="1">
-      <c r="A60" s="70" t="s">
-        <v>332</v>
+    <row r="60" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="69" t="s">
+        <v>331</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>83</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" ht="18" customHeight="1">
-      <c r="A61" s="70"/>
+    <row r="61" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="69"/>
       <c r="B61" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" ht="18.95" customHeight="1">
-      <c r="A62" s="70"/>
+    <row r="62" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="69"/>
       <c r="B62" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" ht="30" customHeight="1">
-      <c r="A63" s="79" t="s">
+    <row r="63" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="80" t="s">
+        <v>337</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>336</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" ht="35.1" customHeight="1">
-      <c r="A64" s="70"/>
+    <row r="64" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="69"/>
       <c r="B64" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -5303,14 +5318,14 @@
       <c r="F65" s="4"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -5318,7 +5333,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -5326,7 +5341,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -5334,94 +5349,89 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="5:7">
+    <row r="81" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="5:7">
+    <row r="82" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="5:7">
+    <row r="83" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="5:7">
+    <row r="84" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="5:7">
+    <row r="85" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="5:7">
+    <row r="86" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="5:7">
+    <row r="87" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A26:A30"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="D50:D52"/>
     <mergeCell ref="A32:A39"/>
@@ -5429,6 +5439,11 @@
     <mergeCell ref="A48:A54"/>
     <mergeCell ref="A56:A58"/>
     <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A26:A30"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -5443,126 +5458,126 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>363</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -5579,254 +5594,254 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.375" customWidth="1"/>
     <col min="2" max="2" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="68" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" t="s">
         <v>365</v>
       </c>
-      <c r="B1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="68"/>
       <c r="B2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="68"/>
       <c r="B3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="68"/>
       <c r="B4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="68"/>
       <c r="B5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="68" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="68" t="s">
+      <c r="B6" t="s">
         <v>371</v>
       </c>
-      <c r="B6" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="68"/>
       <c r="B7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="68"/>
       <c r="B8" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="68"/>
       <c r="B9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="68"/>
       <c r="B10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="68"/>
       <c r="B11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="68" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="68" t="s">
+      <c r="B12" t="s">
         <v>378</v>
       </c>
-      <c r="B12" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="68"/>
       <c r="B13" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="68"/>
       <c r="B14" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="68"/>
       <c r="B15" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="68"/>
       <c r="B16" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="68"/>
       <c r="B17" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="68"/>
       <c r="B18" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="68" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="68" t="s">
+      <c r="B19" t="s">
         <v>386</v>
       </c>
-      <c r="B19" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="68"/>
       <c r="B20" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="68"/>
       <c r="B21" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="68"/>
       <c r="B22" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="68"/>
       <c r="B23" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="68"/>
       <c r="B24" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="68" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="68" t="s">
+      <c r="B25" t="s">
         <v>393</v>
       </c>
-      <c r="B25" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="68"/>
       <c r="B26" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="68"/>
       <c r="B27" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="68"/>
       <c r="B28" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="68"/>
       <c r="B29" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="68"/>
       <c r="B30" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="68" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="68" t="s">
+      <c r="B31" t="s">
         <v>400</v>
       </c>
-      <c r="B31" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="68"/>
       <c r="B32" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="68" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="68" t="s">
+      <c r="B33" t="s">
         <v>403</v>
       </c>
-      <c r="B33" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="68"/>
       <c r="B34" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="68"/>
       <c r="B35" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="68" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="68" t="s">
+      <c r="B36" t="s">
         <v>407</v>
       </c>
-      <c r="B36" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="68"/>
       <c r="B37" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="68"/>
       <c r="B38" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -5853,7 +5868,7 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.25" style="1" customWidth="1"/>
@@ -5865,7 +5880,7 @@
     <col min="9" max="9" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5873,7 +5888,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D1" s="4"/>
       <c r="F1"/>
@@ -5881,7 +5896,7 @@
       <c r="H1"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="81" t="s">
         <v>4</v>
       </c>
@@ -5889,51 +5904,51 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="81"/>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="81"/>
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="81"/>
       <c r="B5" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="81"/>
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="13.5" customHeight="1">
+    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="81" t="s">
         <v>12</v>
       </c>
@@ -5941,51 +5956,51 @@
         <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="81"/>
       <c r="B9" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="81"/>
       <c r="B10" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="81"/>
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="81"/>
       <c r="B12" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="21" customHeight="1">
+    <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="81" t="s">
         <v>20</v>
       </c>
@@ -5993,33 +6008,33 @@
         <v>21</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="21" customHeight="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="81"/>
       <c r="B15" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="81"/>
       <c r="B16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="81" t="s">
         <v>27</v>
       </c>
@@ -6027,254 +6042,254 @@
         <v>28</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="81"/>
       <c r="B19" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="81"/>
       <c r="B20" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>415</v>
-      </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="81"/>
       <c r="B21" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="81"/>
       <c r="B22" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="81"/>
       <c r="B23" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>418</v>
-      </c>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="81"/>
       <c r="B24" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>311</v>
-      </c>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="81"/>
       <c r="B25" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="81"/>
       <c r="B26" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="81" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="81"/>
       <c r="B29" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="81"/>
       <c r="B30" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="81"/>
       <c r="B31" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="81"/>
       <c r="B32" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="81"/>
       <c r="B33" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="81"/>
       <c r="B34" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="81" t="s">
         <v>66</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="81"/>
       <c r="B37" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>283</v>
-      </c>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="81"/>
       <c r="B38" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>306</v>
-      </c>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="81"/>
       <c r="B39" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E39" s="10"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="81"/>
       <c r="B40" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E40" s="10"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="81"/>
       <c r="B41" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="81"/>
       <c r="B42" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E42" s="11"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="81"/>
       <c r="B43" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="E44" s="12"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="81" t="s">
         <v>82</v>
       </c>
@@ -6282,236 +6297,231 @@
         <v>83</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E45" s="10"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="81"/>
       <c r="B46" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>335</v>
-      </c>
       <c r="E46" s="9"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="81"/>
       <c r="B47" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="81"/>
       <c r="B48" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>432</v>
-      </c>
       <c r="E48" s="12"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="5"/>
       <c r="B49" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>434</v>
-      </c>
       <c r="E49" s="9"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="E50" s="11"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="81" t="s">
         <v>91</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E51" s="11"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="81"/>
       <c r="B52" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E52" s="13"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="81"/>
       <c r="B53" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>299</v>
-      </c>
       <c r="E53" s="14"/>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="81"/>
       <c r="B54" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>438</v>
-      </c>
       <c r="E54" s="14"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="81"/>
       <c r="B55" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>308</v>
-      </c>
       <c r="E55" s="14"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="81"/>
       <c r="B56" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>301</v>
-      </c>
       <c r="E56" s="14"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="81"/>
       <c r="B57" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E57" s="14"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="81"/>
       <c r="B58" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E58" s="14"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="81"/>
       <c r="B59" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E59" s="14"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="15"/>
       <c r="E60" s="16"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="68" t="s">
         <v>103</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="68"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="17"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="68" t="s">
         <v>106</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="68"/>
       <c r="B65" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C72" s="68"/>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C73" s="68"/>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C78" s="68"/>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C79" s="68"/>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C80" s="68"/>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C81" s="17"/>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="A28:A34"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="C78:C80"/>
     <mergeCell ref="A36:A43"/>
@@ -6519,6 +6529,11 @@
     <mergeCell ref="A51:A59"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="A28:A34"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
